--- a/data/3DS_SanityEncryptedCardTestData.xlsx
+++ b/data/3DS_SanityEncryptedCardTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="4100" tabRatio="997" firstSheet="2" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="4100" tabRatio="997" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="TEST SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'4_VERIFY'!$A$1:$AA$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'4_VMURL_V'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2813,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BX14" sqref="BX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3622,7 +3622,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -3637,7 +3637,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>
@@ -3834,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BU15" sqref="BU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4643,7 +4643,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -4658,7 +4658,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>
@@ -4855,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BY15" sqref="BY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5664,7 +5664,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -5679,7 +5679,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>
@@ -6138,7 +6138,7 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="L530" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>0a42fb7b-39fc-a1f7-5df5-ea24f63a2707</v>
+        <v>dfac0832-8cf6-161f-07d2-8c5c3d670e57</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="L531" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>48fef010-8add-4e57-8b6b-fcace5382767</v>
+        <v>4dcd0993-4128-8a33-5f49-fd379b61597a</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="L532" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>d0807068-3695-97fe-054d-baf933bc524a</v>
+        <v>526ca0ef-a64c-1a49-0147-ea2083e37844</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
@@ -9773,9 +9773,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="BR1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="BV10" sqref="BV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10583,7 +10583,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -10598,7 +10598,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>
@@ -10797,9 +10797,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="BT1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="CB26" sqref="CB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11607,7 +11607,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -11622,7 +11622,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -11674,7 +11674,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>
@@ -11821,9 +11821,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="CM1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="CS1" sqref="CS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12631,7 +12631,7 @@
         <v>134</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="BW2" s="11" t="s">
         <v>145</v>
@@ -12646,7 +12646,7 @@
         <v>32</v>
       </c>
       <c r="CA2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CB2" s="11" t="s">
         <v>145</v>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="CR2" s="11"/>
       <c r="CS2" s="11" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="CT2" s="11" t="s">
         <v>145</v>

--- a/data/3DS_SanityEncryptedCardTestData.xlsx
+++ b/data/3DS_SanityEncryptedCardTestData.xlsx
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="305">
   <si>
     <t>Y</t>
   </si>
@@ -949,9 +949,6 @@
   </si>
   <si>
     <t>AAAAAA123456789</t>
-  </si>
-  <si>
-    <t>12345678912</t>
   </si>
   <si>
     <t>AcquirerMerchantID222</t>
@@ -2004,6 +2001,12 @@
   </si>
   <si>
     <t>_SanityChallenge_Sample Valid Verify Request</t>
+  </si>
+  <si>
+    <t>MTD000000</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>6</v>
@@ -2593,43 +2596,43 @@
         <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="391.5" x14ac:dyDescent="0.35">
@@ -2637,10 +2640,10 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
@@ -2651,40 +2654,40 @@
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2732,31 +2735,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -2764,10 +2767,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -2777,31 +2780,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2813,8 +2816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BX14" sqref="BX14"/>
+    <sheetView topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2979,91 +2982,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -3366,51 +3369,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -3421,73 +3424,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -3496,10 +3499,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -3553,7 +3556,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -3613,7 +3616,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -3646,7 +3649,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -3658,10 +3661,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -3710,22 +3713,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -3734,31 +3737,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -3794,7 +3797,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -3803,7 +3806,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -3834,8 +3837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BU15" sqref="BU15"/>
+    <sheetView topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4000,91 +4003,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -4387,51 +4390,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -4442,73 +4445,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -4517,10 +4520,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -4574,7 +4577,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -4634,7 +4637,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -4667,7 +4670,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -4679,10 +4682,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -4731,22 +4734,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -4755,31 +4758,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -4815,7 +4818,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -4824,7 +4827,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -4855,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BY15" sqref="BY15"/>
+    <sheetView tabSelected="1" topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5021,91 +5024,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -5408,51 +5411,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -5463,73 +5466,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -5538,10 +5541,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -5595,7 +5598,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -5655,7 +5658,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -5688,7 +5691,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -5700,10 +5703,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -5752,22 +5755,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -5776,31 +5779,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -5836,7 +5839,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -5845,7 +5848,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -5935,61 +5938,61 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>176</v>
-      </c>
       <c r="J1" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="31" t="s">
         <v>195</v>
-      </c>
-      <c r="T1" s="31" t="s">
-        <v>196</v>
       </c>
       <c r="U1" s="17" t="s">
         <v>120</v>
       </c>
       <c r="V1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>198</v>
       </c>
       <c r="X1" s="14" t="s">
         <v>80</v>
@@ -6004,22 +6007,22 @@
         <v>99</v>
       </c>
       <c r="AB1" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC1" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="AD1" s="14" t="s">
         <v>135</v>
       </c>
       <c r="AE1" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AG1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="AH1" s="14" t="s">
         <v>136</v>
@@ -6028,15 +6031,15 @@
         <v>137</v>
       </c>
       <c r="AJ1" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -6047,46 +6050,46 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W2" s="11" t="s">
         <v>8</v>
@@ -6095,7 +6098,7 @@
         <v>8</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
@@ -6103,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>21</v>
@@ -6118,13 +6121,13 @@
         <v>18</v>
       </c>
       <c r="AH2" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6187,84 +6190,84 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>99</v>
       </c>
       <c r="X1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y1" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z1" s="17" t="s">
         <v>81</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -6275,63 +6278,63 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="W2" s="11"/>
       <c r="X2" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Y2" s="36"/>
       <c r="Z2" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>0</v>
@@ -6401,22 +6404,22 @@
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="41"/>
       <c r="J7" s="42"/>
       <c r="L7" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="42"/>
       <c r="P7" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="42"/>
       <c r="T7" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U7" s="41"/>
       <c r="V7" s="42"/>
@@ -6427,31 +6430,31 @@
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="R8" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="R8" s="22" t="s">
-        <v>206</v>
       </c>
       <c r="T8" s="21"/>
       <c r="U8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="V8" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="V8" s="22" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -6459,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I9" s="21">
         <v>550</v>
@@ -6468,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M9" s="35">
         <v>517</v>
@@ -6477,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q9" s="35">
         <v>390</v>
@@ -6486,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U9" s="21">
         <v>87</v>
@@ -6500,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I10" s="21">
         <v>458</v>
@@ -6509,7 +6512,7 @@
         <v>92</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M10" s="21">
         <v>376</v>
@@ -6518,7 +6521,7 @@
         <v>141</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="21">
         <v>266</v>
@@ -6527,7 +6530,7 @@
         <v>124</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U10" s="21">
         <v>87</v>
@@ -6541,7 +6544,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I11" s="23">
         <f>SUM(I9:I10)</f>
@@ -6552,7 +6555,7 @@
         <v>92</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M11" s="23">
         <f>SUM(M9:M10)</f>
@@ -6563,7 +6566,7 @@
         <v>141</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="23">
         <f>SUM(Q9:Q10)</f>
@@ -6574,7 +6577,7 @@
         <v>124</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U11" s="23">
         <f>SUM(U9:U10)</f>
@@ -6590,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" s="27">
         <f>I11/(I11+J11)</f>
@@ -6601,7 +6604,7 @@
         <v>8.3636363636363634E-2</v>
       </c>
       <c r="L12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M12" s="27">
         <f>M11/(M11+N11)</f>
@@ -6612,7 +6615,7 @@
         <v>0.13636363636363635</v>
       </c>
       <c r="P12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="27">
         <f>Q11/(Q11+R11)</f>
@@ -6623,7 +6626,7 @@
         <v>0.15897435897435896</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="U12" s="27">
         <f>U11/(U11+V11)</f>
@@ -6650,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M15" s="38"/>
       <c r="N15" s="39"/>
@@ -6661,10 +6664,10 @@
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="N16" s="22" t="s">
         <v>205</v>
-      </c>
-      <c r="N16" s="22" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -6672,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M17" s="21">
         <f>SUM(I9+M9+Q9+U9)</f>
@@ -6688,7 +6691,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M18" s="21">
         <f>SUM(I10+M10+Q10+U10)</f>
@@ -6704,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M19" s="23">
         <f>SUM(M17:M18)</f>
@@ -6720,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M20" s="27">
         <f>M19/(M19+N19)</f>
@@ -9282,7 +9285,7 @@
       </c>
       <c r="L530" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>dfac0832-8cf6-161f-07d2-8c5c3d670e57</v>
+        <v>d4e83e92-5db3-44fc-7dcc-44a983889509</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
@@ -9291,7 +9294,7 @@
       </c>
       <c r="L531" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>4dcd0993-4128-8a33-5f49-fd379b61597a</v>
+        <v>85a8e6d9-1e21-2623-02c5-1b35a5e32b1d</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
@@ -9300,7 +9303,7 @@
       </c>
       <c r="L532" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>526ca0ef-a64c-1a49-0147-ea2083e37844</v>
+        <v>a788fe55-9028-0415-3e64-9ed80ba57429</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
@@ -9452,31 +9455,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -9484,10 +9487,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9497,31 +9500,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -9571,31 +9574,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -9603,10 +9606,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9616,31 +9619,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -9690,31 +9693,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -9722,10 +9725,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9735,31 +9738,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -9773,9 +9776,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="BR1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BV10" sqref="BV10"/>
+      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9940,91 +9943,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -10327,51 +10330,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -10382,73 +10385,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -10457,10 +10460,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -10514,7 +10517,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -10574,7 +10577,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -10619,10 +10622,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -10671,22 +10674,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -10695,31 +10698,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -10755,7 +10758,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -10764,7 +10767,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -10797,9 +10800,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="BT1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="DH1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB26" sqref="CB26"/>
+      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10964,91 +10967,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -11351,51 +11354,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -11406,73 +11409,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -11481,10 +11484,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -11538,7 +11541,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -11598,7 +11601,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -11643,10 +11646,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -11695,22 +11698,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -11719,31 +11722,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -11779,7 +11782,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -11788,7 +11791,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -11821,9 +11824,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="CM1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CS1" sqref="CS1"/>
+      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11988,91 +11991,91 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="S1" s="10" t="s">
-        <v>177</v>
-      </c>
       <c r="T1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>173</v>
-      </c>
       <c r="AD1" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AE1" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF1" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG1" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AH1" s="17" t="s">
         <v>40</v>
@@ -12375,51 +12378,51 @@
         <v>139</v>
       </c>
       <c r="ED1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="EE1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="EE1" s="14" t="s">
+      <c r="EF1" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="EF1" s="14" t="s">
+      <c r="EG1" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="EG1" s="29" t="s">
+      <c r="EH1" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="EH1" s="29" t="s">
+      <c r="EI1" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="EI1" s="29" t="s">
+      <c r="EJ1" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="EJ1" s="29" t="s">
+      <c r="EK1" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="EK1" s="29" t="s">
-        <v>218</v>
-      </c>
       <c r="EL1" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM1" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="EM1" s="29" t="s">
+      <c r="EN1" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="EN1" s="29" t="s">
+      <c r="EO1" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="EO1" s="29" t="s">
+      <c r="EP1" s="29" t="s">
         <v>223</v>
-      </c>
-      <c r="EP1" s="29" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12430,73 +12433,73 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="U2" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD2" s="11" t="s">
         <v>22</v>
@@ -12505,10 +12508,10 @@
         <v>11</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -12562,7 +12565,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -12622,7 +12625,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -12667,10 +12670,10 @@
         <v>30</v>
       </c>
       <c r="CH2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CI2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="CJ2" s="11" t="s">
         <v>143</v>
@@ -12719,22 +12722,22 @@
         <v>8</v>
       </c>
       <c r="CZ2" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="DA2" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DB2" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DC2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="DD2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="DE2" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="DE2" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="DF2" s="16" t="s">
         <v>155</v>
@@ -12743,31 +12746,31 @@
         <v>158</v>
       </c>
       <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="DI2" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="DJ2" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="DK2" s="11" t="s">
         <v>159</v>
-      </c>
-      <c r="DK2" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="DL2" s="11" t="s">
         <v>22</v>
       </c>
       <c r="DM2" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DO2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="DP2" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DQ2" s="16" t="s">
         <v>134</v>
@@ -12803,7 +12806,7 @@
         <v>138</v>
       </c>
       <c r="EB2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="EC2" s="11" t="s">
         <v>8</v>
@@ -12812,7 +12815,7 @@
       <c r="EE2" s="11"/>
       <c r="EF2" s="11"/>
       <c r="EG2" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="EH2" s="11"/>
       <c r="EI2" s="11"/>
@@ -12880,31 +12883,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -12912,10 +12915,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12925,31 +12928,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -12997,31 +13000,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>56</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>246</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>247</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>81</v>
@@ -13029,10 +13032,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -13042,31 +13045,31 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/3DS_SanityEncryptedCardTestData.xlsx
+++ b/data/3DS_SanityEncryptedCardTestData.xlsx
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="304">
   <si>
     <t>Y</t>
   </si>
@@ -1678,13 +1678,7 @@
    "callerTxnRefID": "#callerTxnRefID#"}</t>
   </si>
   <si>
-    <t>CADS</t>
-  </si>
-  <si>
     <t>Stephen</t>
-  </si>
-  <si>
-    <t>300</t>
   </si>
   <si>
     <t>{
@@ -1816,9 +1810,6 @@
 }</t>
   </si>
   <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>BRW_AReq_API_ByPass3DSMethodurl</t>
   </si>
   <si>
@@ -1964,13 +1955,28 @@
     <t>RSRs</t>
   </si>
   <si>
-    <t>wg2T1yuQgrz1a4x4vyV0LuSoVIMobbSuYGcS1JHozKzuWMFUBDEt3gJWiPn6MFm5bsNkj9Nl+tGqWZGZzdqAg4Uf4nWJYoH6IiPaOkLXsqhICrVuRWpchtpVWYiRba2Vw98lgZmE1Qhc0ZohDBiam29xOGM85GpMrOk84BDHMJ5SeEbv21bXxP/UWGgkKEbuetHynMfF91NDL6FBwMe8o35sMWdwks3ny+v+OekFNwImZS6qyFoQVsFs+xwiu2SafN1K5O1DxL+4bdLVxTbiXwiO41iPnSUsLU/JN0HgtN7b3/cJR5mR96KYfB6eBvVPq/j6jw2LzDuPKHZ39DkPSA=</t>
-  </si>
-  <si>
-    <t>nryb12B1oZMhWzpQOpmp5YiPiZgTHXQhpBQnlNs/rJn2NBTOqmdbWZ9tZbyZYCuW3xVrbRzKgCR9AplwU8entf7XQebRssBHlkiFtczzcutAWLlkFC6pp89Ogsf/Heb6zMi1bvjq97ivKDnANWB70tMNwepMnHO1doi+3YIhcrL3RRKQqhqNUMrTStiS+v8eKeXbuq2zdnCQbuaRyyODinCTTFufPIOdyDfCgADlSC4etthZAD7E2t61OKu0EI+uwJ76jn2RAqEhnV8aPCzstaM8DCoV0uXIR50m4Jysmw9H8oR7WvAyLAmxVUsH5N8axwaUHLktu9RUXJi33l57Tw==</t>
-  </si>
-  <si>
-    <t>7baLwVsvt5uXuVG0qvgpAlTuab3zxrLi4etiUy5qvntg+ADqJPeZCKy/69Ww7/9ITmT9ah7PemYJQGLSkzCNfWKW+6fdJEo5IKNULs4lD8i0Dxqx8dezuPGAzBmSQKLvmX2iKhJcADPBn838rQtBo5B0eph6lhmDiOh8PDWwA/NOk7o7ujiqoTAiaTTM0QDWo52n3YI2P7KfE8qQUR9MSYmVXdFgJ9qZ1uWqGdOtXXYX9zRnvuvE+TH5qG1BvUiUgdwQEz/AZDfB3EdGDLS70QBcD+a0JEgDXd8Uw2xfocQXFKB+orVj0eiFt+fnqdfXedWSX8bbko809DaeyeEriA==</t>
+    <t>_SanityChallenge_VISA_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_MC_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_AMEX_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_AReq_AMEX_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_AReq_MC_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_AReq_VISA_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_RReq_For_Verify_TC001</t>
+  </si>
+  <si>
+    <t>_SanityChallenge_Sample Valid Verify Request</t>
   </si>
   <si>
     <t>_SanityFrictionless_TDSMethodURL_CallFor_Sample Valid Areq Request</t>
@@ -1979,34 +1985,25 @@
     <t>_SanityFrictionless_Sample Valid Areq Request</t>
   </si>
   <si>
-    <t>_SanityChallenge_AMEX_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_MC_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_VISA_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_AReq_AMEX_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_AReq_MC_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_AReq_VISA_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_RReq_For_Verify_TC001</t>
-  </si>
-  <si>
-    <t>_SanityChallenge_Sample Valid Verify Request</t>
-  </si>
-  <si>
     <t>MTD000000</t>
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>DsReferenceNumber</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>4Abuomi9LgxCa7vPYSbXHlv9jX754ALLUd7WxKwnrLZln1vr0ZVO/ahzu6fQh6YLuA3+1M4JoV4oFRd5cPK2lml3yytggURxMETgAx3fb8CMT/YXCYDSzZ+m1ghc+3FtmSFENHIKm3cAoIJBNOGC0VpXdEr5p/3XBdYsXlaODLnQdIZtNAdWIE0ihy6VIcwAlJox+tarG37G0WbEM9lZZcIBH9cXs7IXayzAA5RpynHPOkrs5H5JZ2aIt5B1OuBe1fVcylt66j9OSfQ2apT9bbr0NFgME+Hsn490Z7RhvcGiM7khgaaNkw756VP/1CjKYsTzzhZIt0g31B6vvYdNaw==</t>
+  </si>
+  <si>
+    <t>JMbbVk4F0nKs0mF3FrPbEgEf+VlyONcTIhvTubOI7xH1J0d1kIdnjMwECYYUQ7DmCgFJYyH8zPh1nLRuWjL98PwvfJiKuzCB5iCs7MRghqdsJWZ0yzYZuE3HunQj+pd+55Hq+y+Svaqqxek41OTNKvr2gw7EeXUD4zRSQ6EVHQ/KezdYJy7sAze7fh4hOW0QdHUpZMPmBRtonkcJNBepEEDhWVqGDWz290xdt8nbNtwt9NNNVBZSGqZA3A8QrFiI3pOGP+8ql9qvcMn/rxFfaQInIFdo8Ig0BuowLINFvfop5uQ4vLSZX0e14VhKlTAdGu5cl/rWU85Ch6eFaidxfw==</t>
+  </si>
+  <si>
+    <t>7UpZZndm5dmKnbhUtEVIl30b+B4lVwi6GEN5VUyxoT2QF9+gY5Ar1+tjBZys9AJyUW2vqz902epcr0Rkmr0sT/OlSvUOEc7gOEbVavO6KvHkRQchwOcaB3rwMDwhcZqsumgzyYwPWqBwAAtbIF+L1Lw7NyL9nYLl3O4ZHDyfNbdgBW5ZuNXWS2j+zhNabX1qmOv4NvdzdEV4iAlgc6YSsJ2RiOa3uyOXpLxzLtFSELhmZBO92W88+uSz/J7kMj5F7sAvkgULVYpptMi//3QaRAPLbtWtG7fWWuJuoAXMAuZeSzh2n7nL7COGeuipY7HjUEFov36gYDQL81FX219iew==</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2607,7 @@
         <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2681,13 +2678,13 @@
     </row>
     <row r="10" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2699,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2770,7 +2767,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -2795,7 +2792,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>
@@ -2816,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ2" sqref="DJ2"/>
+    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3030,7 +3027,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -3413,7 +3410,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -3466,13 +3463,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -3502,7 +3499,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -3556,7 +3553,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -3616,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -3649,7 +3646,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -3743,7 +3740,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -3837,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ2" sqref="DJ2"/>
+    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4051,7 +4048,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -4434,7 +4431,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -4487,13 +4484,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -4523,7 +4520,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -4577,7 +4574,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -4637,7 +4634,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -4670,7 +4667,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -4764,7 +4761,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -4858,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DJ2" sqref="DJ2"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5072,7 +5069,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -5455,7 +5452,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -5508,13 +5505,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -5544,7 +5541,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -5598,7 +5595,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -5658,7 +5655,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -5691,7 +5688,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -5785,7 +5782,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -5882,7 +5879,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I21" sqref="I21"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6039,7 +6036,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -6267,7 +6264,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -6308,7 +6305,7 @@
         <v>177</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>177</v>
@@ -9285,7 +9282,7 @@
       </c>
       <c r="L530" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>d4e83e92-5db3-44fc-7dcc-44a983889509</v>
+        <v>3c06622a-2ad3-6903-7d64-6aa5f5d154e5</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
@@ -9294,7 +9291,7 @@
       </c>
       <c r="L531" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>85a8e6d9-1e21-2623-02c5-1b35a5e32b1d</v>
+        <v>68ea149e-7878-67c5-5a35-374ac19d5a09</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
@@ -9303,7 +9300,7 @@
       </c>
       <c r="L532" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>a788fe55-9028-0415-3e64-9ed80ba57429</v>
+        <v>8e841e07-22f9-33c3-518d-93f15b9f439b</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
@@ -9419,8 +9416,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9490,7 +9487,7 @@
         <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9515,7 +9512,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>
@@ -9538,8 +9535,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9609,7 +9606,7 @@
         <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9634,7 +9631,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>
@@ -9657,8 +9654,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9728,7 +9725,7 @@
         <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9753,7 +9750,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>
@@ -9776,9 +9773,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
+      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9991,7 +9988,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -10374,7 +10371,7 @@
         <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -10427,13 +10424,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -10463,7 +10460,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -10517,7 +10514,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -10577,7 +10574,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -10704,7 +10701,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -10800,9 +10797,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AR1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
+      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11015,7 +11012,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -11398,7 +11395,7 @@
         <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -11451,13 +11448,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -11487,7 +11484,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -11541,7 +11538,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -11601,7 +11598,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -11728,7 +11725,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -11824,9 +11821,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="DH1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DJ2" sqref="DJ2"/>
+      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12039,7 +12036,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -12422,7 +12419,7 @@
         <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12475,13 +12472,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -12511,7 +12508,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -12565,7 +12562,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -12625,7 +12622,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -12752,7 +12749,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -12847,8 +12844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12918,7 +12915,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12943,7 +12940,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>
@@ -12964,8 +12961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13035,7 +13032,7 @@
         <v>275</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -13060,7 +13057,7 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>269</v>

--- a/data/3DS_SanityEncryptedCardTestData.xlsx
+++ b/data/3DS_SanityEncryptedCardTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="4100" tabRatio="997" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12290" windowHeight="4100" tabRatio="997" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TEST SCENARIOS" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2563" uniqueCount="303">
   <si>
     <t>Y</t>
   </si>
@@ -1646,9 +1646,6 @@
   "transStatus": "#transStatus#",
   "transStatusReason": "#transStatusReason#"
 }</t>
-  </si>
-  <si>
-    <t>CA_EU</t>
   </si>
   <si>
     <t>AJkCCBFHJhl3gGhDA0cmAAAAAAA=</t>
@@ -2596,7 +2593,7 @@
         <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2607,7 +2604,7 @@
         <v>224</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2678,13 +2675,13 @@
     </row>
     <row r="10" spans="1:3" ht="289.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +2694,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2764,10 +2761,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -2792,16 +2789,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2813,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3027,7 +3024,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -3054,7 +3051,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -3407,10 +3404,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -3463,13 +3460,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -3499,7 +3496,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -3553,7 +3550,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -3613,7 +3610,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -3646,7 +3643,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -3740,7 +3737,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -4048,7 +4045,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -4075,7 +4072,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -4428,10 +4425,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -4484,13 +4481,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -4520,7 +4517,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -4574,7 +4571,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -4634,7 +4631,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -4667,7 +4664,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -4761,7 +4758,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -4855,7 +4852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AU1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
@@ -5069,7 +5066,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -5096,7 +5093,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -5449,10 +5446,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -5505,13 +5502,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -5541,7 +5538,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -5595,7 +5592,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -5655,7 +5652,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -5688,7 +5685,7 @@
         <v>33</v>
       </c>
       <c r="CD2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="CE2" s="11" t="s">
         <v>15</v>
@@ -5782,7 +5779,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -5879,7 +5876,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I21" sqref="I21"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6033,10 +6030,10 @@
     </row>
     <row r="2" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -6124,7 +6121,7 @@
         <v>191</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6138,8 +6135,8 @@
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6261,10 +6258,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
@@ -6305,7 +6302,7 @@
         <v>177</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>177</v>
@@ -6331,7 +6328,7 @@
         <v>264</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="AB2" s="6" t="s">
         <v>0</v>
@@ -6349,7 +6346,7 @@
   <sheetPr codeName="Sheet28"/>
   <dimension ref="A1:V551"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -9282,7 +9279,7 @@
       </c>
       <c r="L530" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>3c06622a-2ad3-6903-7d64-6aa5f5d154e5</v>
+        <v>e18cce38-3129-9738-0369-e878dbd66d83</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.35">
@@ -9291,7 +9288,7 @@
       </c>
       <c r="L531" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>68ea149e-7878-67c5-5a35-374ac19d5a09</v>
+        <v>1e5495f4-1f7d-32b3-99be-24754ea4450f</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.35">
@@ -9300,7 +9297,7 @@
       </c>
       <c r="L532" s="33" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,42949),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,42949),4)))</f>
-        <v>8e841e07-22f9-33c3-518d-93f15b9f439b</v>
+        <v>82bdf4ac-6cdb-6e8f-0ce1-73b85c7013e4</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.35">
@@ -9417,7 +9414,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9484,10 +9481,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9512,16 +9509,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9536,7 +9533,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9603,10 +9600,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9631,16 +9628,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9655,7 +9652,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9722,10 +9719,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -9750,16 +9747,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -9773,9 +9770,9 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9988,7 +9985,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -10015,7 +10012,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -10368,10 +10365,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -10424,13 +10421,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -10460,7 +10457,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -10514,7 +10511,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -10574,7 +10571,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -10701,7 +10698,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -10797,9 +10794,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AB1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11012,7 +11009,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -11039,7 +11036,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -11392,10 +11389,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -11448,13 +11445,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -11484,7 +11481,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -11538,7 +11535,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -11598,7 +11595,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -11725,7 +11722,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -11821,9 +11818,9 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:EP2"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
+    <sheetView topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY2" sqref="AY2"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12036,7 +12033,7 @@
         <v>169</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>170</v>
@@ -12063,7 +12060,7 @@
         <v>172</v>
       </c>
       <c r="AD1" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AE1" s="17" t="s">
         <v>248</v>
@@ -12416,10 +12413,10 @@
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12472,13 +12469,13 @@
         <v>178</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="W2" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>168</v>
@@ -12508,7 +12505,7 @@
         <v>247</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>7</v>
@@ -12562,7 +12559,7 @@
         <v>35</v>
       </c>
       <c r="AY2" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AZ2" s="11" t="s">
         <v>8</v>
@@ -12622,7 +12619,7 @@
         <v>28</v>
       </c>
       <c r="BS2" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="BT2" s="11" t="s">
         <v>9</v>
@@ -12749,7 +12746,7 @@
         <v>161</v>
       </c>
       <c r="DJ2" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DK2" s="11" t="s">
         <v>159</v>
@@ -12845,7 +12842,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12912,10 +12909,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -12940,16 +12937,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -12962,7 +12959,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13029,10 +13026,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>0</v>
@@ -13057,16 +13054,16 @@
         <v>177</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>247</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
